--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,10 +79,10 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Pspn</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +543,40 @@
         <v>3.499619</v>
       </c>
       <c r="I2">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J2">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1058645</v>
+        <v>0.452919</v>
       </c>
       <c r="N2">
-        <v>0.211729</v>
+        <v>0.905838</v>
       </c>
       <c r="O2">
-        <v>0.009133991451461642</v>
+        <v>0.03428003430836644</v>
       </c>
       <c r="P2">
-        <v>0.007982871865007578</v>
+        <v>0.03049201402277582</v>
       </c>
       <c r="Q2">
-        <v>0.1234951385418333</v>
+        <v>0.5283479792870001</v>
       </c>
       <c r="R2">
-        <v>0.7409708312510001</v>
+        <v>3.170087875722</v>
       </c>
       <c r="S2">
-        <v>0.002939581516258491</v>
+        <v>0.01868381097509801</v>
       </c>
       <c r="T2">
-        <v>0.002682578671231119</v>
+        <v>0.01939981206062634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>3.499619</v>
       </c>
       <c r="I3">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J3">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.282732333333334</v>
+        <v>3.282732333333333</v>
       </c>
       <c r="N3">
-        <v>9.848197000000001</v>
+        <v>9.848196999999999</v>
       </c>
       <c r="O3">
-        <v>0.2832342198763835</v>
+        <v>0.2484598283839946</v>
       </c>
       <c r="P3">
-        <v>0.3713090542738691</v>
+        <v>0.3315066943791922</v>
       </c>
       <c r="Q3">
         <v>3.829437481882556</v>
@@ -635,10 +635,10 @@
         <v>34.464937336943</v>
       </c>
       <c r="S3">
-        <v>0.09115292935677941</v>
+        <v>0.1354192480285491</v>
       </c>
       <c r="T3">
-        <v>0.1247753648403492</v>
+        <v>0.2109131775615774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,10 +667,10 @@
         <v>3.499619</v>
       </c>
       <c r="I4">
-        <v>0.3218288009004094</v>
+        <v>0.5450347805088984</v>
       </c>
       <c r="J4">
-        <v>0.336041805078951</v>
+        <v>0.6362259982609142</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.141729999999999</v>
+        <v>9.476675</v>
       </c>
       <c r="N4">
-        <v>16.28346</v>
+        <v>18.95335</v>
       </c>
       <c r="O4">
-        <v>0.7024686483203414</v>
+        <v>0.7172601373076389</v>
       </c>
       <c r="P4">
-        <v>0.6139393975269154</v>
+        <v>0.638001291598032</v>
       </c>
       <c r="Q4">
-        <v>9.49765100029</v>
+        <v>11.05491729560833</v>
       </c>
       <c r="R4">
-        <v>56.98590600173999</v>
+        <v>66.32950377365</v>
       </c>
       <c r="S4">
-        <v>0.2260746427590669</v>
+        <v>0.3909317215052514</v>
       </c>
       <c r="T4">
-        <v>0.2063093033540283</v>
+        <v>0.4059130086387105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.053445</v>
+      </c>
+      <c r="H5">
+        <v>0.160335</v>
+      </c>
+      <c r="I5">
+        <v>0.02497076154086894</v>
+      </c>
+      <c r="J5">
+        <v>0.02914868602301098</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>1.166539666666667</v>
-      </c>
-      <c r="H5">
-        <v>3.499619</v>
-      </c>
-      <c r="I5">
-        <v>0.3218288009004094</v>
-      </c>
-      <c r="J5">
-        <v>0.336041805078951</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05984166666666666</v>
+        <v>0.452919</v>
       </c>
       <c r="N5">
-        <v>0.179525</v>
+        <v>0.905838</v>
       </c>
       <c r="O5">
-        <v>0.005163140351813406</v>
+        <v>0.03428003430836644</v>
       </c>
       <c r="P5">
-        <v>0.006768676334207809</v>
+        <v>0.03049201402277582</v>
       </c>
       <c r="Q5">
-        <v>0.06980767788611111</v>
+        <v>0.024206255955</v>
       </c>
       <c r="R5">
-        <v>0.628269100975</v>
+        <v>0.14523753573</v>
       </c>
       <c r="S5">
-        <v>0.001661647268304627</v>
+        <v>0.0008559985623270243</v>
       </c>
       <c r="T5">
-        <v>0.00227455821334237</v>
+        <v>0.0008888021429591405</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4599265</v>
+        <v>0.053445</v>
       </c>
       <c r="H6">
-        <v>0.919853</v>
+        <v>0.160335</v>
       </c>
       <c r="I6">
-        <v>0.1268860358776102</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J6">
-        <v>0.08832648997713419</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1058645</v>
+        <v>3.282732333333333</v>
       </c>
       <c r="N6">
-        <v>0.211729</v>
+        <v>9.848196999999999</v>
       </c>
       <c r="O6">
-        <v>0.009133991451461642</v>
+        <v>0.2484598283839946</v>
       </c>
       <c r="P6">
-        <v>0.007982871865007578</v>
+        <v>0.3315066943791922</v>
       </c>
       <c r="Q6">
-        <v>0.04868988895925</v>
+        <v>0.175445629555</v>
       </c>
       <c r="R6">
-        <v>0.194759555837</v>
+        <v>1.579010665995</v>
       </c>
       <c r="S6">
-        <v>0.001158975967015947</v>
+        <v>0.00620423112706195</v>
       </c>
       <c r="T6">
-        <v>0.0007050990517733384</v>
+        <v>0.009662984548985334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4599265</v>
+        <v>0.053445</v>
       </c>
       <c r="H7">
-        <v>0.919853</v>
+        <v>0.160335</v>
       </c>
       <c r="I7">
-        <v>0.1268860358776102</v>
+        <v>0.02497076154086894</v>
       </c>
       <c r="J7">
-        <v>0.08832648997713419</v>
+        <v>0.02914868602301098</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.282732333333334</v>
+        <v>9.476675</v>
       </c>
       <c r="N7">
-        <v>9.848197000000001</v>
+        <v>18.95335</v>
       </c>
       <c r="O7">
-        <v>0.2832342198763835</v>
+        <v>0.7172601373076389</v>
       </c>
       <c r="P7">
-        <v>0.3713090542738691</v>
+        <v>0.638001291598032</v>
       </c>
       <c r="Q7">
-        <v>1.509815592506834</v>
+        <v>0.506480895375</v>
       </c>
       <c r="R7">
-        <v>9.058893555041001</v>
+        <v>3.03888537225</v>
       </c>
       <c r="S7">
-        <v>0.03593846738500174</v>
+        <v>0.01791053185147996</v>
       </c>
       <c r="T7">
-        <v>0.03279642546074008</v>
+        <v>0.01859689933106651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.4599265</v>
+        <v>0.9203185</v>
       </c>
       <c r="H8">
-        <v>0.919853</v>
+        <v>1.840637</v>
       </c>
       <c r="I8">
-        <v>0.1268860358776102</v>
+        <v>0.4299944579502328</v>
       </c>
       <c r="J8">
-        <v>0.08832648997713419</v>
+        <v>0.3346253157160749</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.141729999999999</v>
+        <v>0.452919</v>
       </c>
       <c r="N8">
-        <v>16.28346</v>
+        <v>0.905838</v>
       </c>
       <c r="O8">
-        <v>0.7024686483203414</v>
+        <v>0.03428003430836644</v>
       </c>
       <c r="P8">
-        <v>0.6139393975269154</v>
+        <v>0.03049201402277582</v>
       </c>
       <c r="Q8">
-        <v>3.744597382845</v>
+        <v>0.4168297347015</v>
       </c>
       <c r="R8">
-        <v>14.97838953138</v>
+        <v>1.667318938806</v>
       </c>
       <c r="S8">
-        <v>0.08913346211367121</v>
+        <v>0.01474022477094141</v>
       </c>
       <c r="T8">
-        <v>0.05422711204222889</v>
+        <v>0.01020339981919034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,46 +971,46 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.4599265</v>
+        <v>0.9203185</v>
       </c>
       <c r="H9">
-        <v>0.919853</v>
+        <v>1.840637</v>
       </c>
       <c r="I9">
-        <v>0.1268860358776102</v>
+        <v>0.4299944579502328</v>
       </c>
       <c r="J9">
-        <v>0.08832648997713419</v>
+        <v>0.3346253157160749</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05984166666666666</v>
+        <v>3.282732333333333</v>
       </c>
       <c r="N9">
-        <v>0.179525</v>
+        <v>9.848196999999999</v>
       </c>
       <c r="O9">
-        <v>0.005163140351813406</v>
+        <v>0.2484598283839946</v>
       </c>
       <c r="P9">
-        <v>0.006768676334207809</v>
+        <v>0.3315066943791922</v>
       </c>
       <c r="Q9">
-        <v>0.02752276830416666</v>
+        <v>3.021159296914833</v>
       </c>
       <c r="R9">
-        <v>0.165136609825</v>
+        <v>18.126955781489</v>
       </c>
       <c r="S9">
-        <v>0.000655130411921333</v>
+        <v>0.1068363492283836</v>
       </c>
       <c r="T9">
-        <v>0.0005978534223918714</v>
+        <v>0.1109305322686295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,241 +1024,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>1.998255</v>
+        <v>0.9203185</v>
       </c>
       <c r="H10">
-        <v>5.994765</v>
+        <v>1.840637</v>
       </c>
       <c r="I10">
-        <v>0.5512851632219802</v>
+        <v>0.4299944579502328</v>
       </c>
       <c r="J10">
-        <v>0.5756317049439148</v>
+        <v>0.3346253157160749</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1058645</v>
+        <v>9.476675</v>
       </c>
       <c r="N10">
-        <v>0.211729</v>
+        <v>18.95335</v>
       </c>
       <c r="O10">
-        <v>0.009133991451461642</v>
+        <v>0.7172601373076389</v>
       </c>
       <c r="P10">
-        <v>0.007982871865007578</v>
+        <v>0.638001291598032</v>
       </c>
       <c r="Q10">
-        <v>0.2115442664475</v>
+        <v>8.721559320987501</v>
       </c>
       <c r="R10">
-        <v>1.269265598685</v>
+        <v>34.88623728395</v>
       </c>
       <c r="S10">
-        <v>0.005035433968187203</v>
+        <v>0.3084178839509077</v>
       </c>
       <c r="T10">
-        <v>0.004595194142003121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.998255</v>
-      </c>
-      <c r="H11">
-        <v>5.994765</v>
-      </c>
-      <c r="I11">
-        <v>0.5512851632219802</v>
-      </c>
-      <c r="J11">
-        <v>0.5756317049439148</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.282732333333334</v>
-      </c>
-      <c r="N11">
-        <v>9.848197000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.2832342198763835</v>
-      </c>
-      <c r="P11">
-        <v>0.3713090542738691</v>
-      </c>
-      <c r="Q11">
-        <v>6.559736298745001</v>
-      </c>
-      <c r="R11">
-        <v>59.037626688705</v>
-      </c>
-      <c r="S11">
-        <v>0.1561428231346023</v>
-      </c>
-      <c r="T11">
-        <v>0.2137372639727799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.998255</v>
-      </c>
-      <c r="H12">
-        <v>5.994765</v>
-      </c>
-      <c r="I12">
-        <v>0.5512851632219802</v>
-      </c>
-      <c r="J12">
-        <v>0.5756317049439148</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>8.141729999999999</v>
-      </c>
-      <c r="N12">
-        <v>16.28346</v>
-      </c>
-      <c r="O12">
-        <v>0.7024686483203414</v>
-      </c>
-      <c r="P12">
-        <v>0.6139393975269154</v>
-      </c>
-      <c r="Q12">
-        <v>16.26925268115</v>
-      </c>
-      <c r="R12">
-        <v>97.61551608689999</v>
-      </c>
-      <c r="S12">
-        <v>0.3872605434476032</v>
-      </c>
-      <c r="T12">
-        <v>0.3534029821306582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.998255</v>
-      </c>
-      <c r="H13">
-        <v>5.994765</v>
-      </c>
-      <c r="I13">
-        <v>0.5512851632219802</v>
-      </c>
-      <c r="J13">
-        <v>0.5756317049439148</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.05984166666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.179525</v>
-      </c>
-      <c r="O13">
-        <v>0.005163140351813406</v>
-      </c>
-      <c r="P13">
-        <v>0.006768676334207809</v>
-      </c>
-      <c r="Q13">
-        <v>0.119578909625</v>
-      </c>
-      <c r="R13">
-        <v>1.076210186625</v>
-      </c>
-      <c r="S13">
-        <v>0.002846362671587446</v>
-      </c>
-      <c r="T13">
-        <v>0.003896264698473568</v>
+        <v>0.213491383628255</v>
       </c>
     </row>
   </sheetData>
